--- a/scoring/tests/MMFAD/MMFAD9A_test_2.xlsx
+++ b/scoring/tests/MMFAD/MMFAD9A_test_2.xlsx
@@ -1068,31 +1068,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>problem_solving</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>overall_performance</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>affective_responsiveness</t>
+          <t>problem_solving</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1108,41 +1108,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>affective_involvement</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>behaviour_control</t>
+          <t>affective_involvement</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>overall_performance</t>
+          <t>behaviour_control</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>raw</t>
+          <t>affective_responsiveness</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
